--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail13 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>1.048048517527418e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.235748437685178</v>
+        <v>6.779120851152259e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.25651794884605</v>
+        <v>5.17786943255614e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.779120851152259e-06</v>
+        <v>-0.1079140916536345</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.17786943255614e-06</v>
+        <v>0.2797709020144993</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1079140916536345</v>
+        <v>0.08968911032377927</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2797709020144993</v>
+        <v>1.918237564508205</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08968911032377927</v>
+        <v>2.470112645863984</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.943098145316066</v>
+        <v>6.712476921192867</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.470112645863984</v>
+        <v>1.184371049509284e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.712476921192867</v>
+        <v>3339053336.588645</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.184371049509284e-16</v>
+        <v>3.582680506265984e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3339053336.588645</v>
+        <v>1320.488112037539</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.582680506265984e-08</v>
+        <v>5.417071203118022e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1320.488112037539</v>
+        <v>11.42100329692823</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.417071203118022e-05</v>
+        <v>1.118386985821973</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.42100329692823</v>
+        <v>0.007065990641288831</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.118386985821973</v>
+        <v>5.867941521590625</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007065990641288831</v>
+        <v>0.9632059890726631</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.867941521590625</v>
+        <v>1.094097051438544</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9632059890726631</v>
+        <v>77</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.094097051438544</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>7.080597914313665</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>8.063973068643967e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.975679744626419</v>
+        <v>5.089815860666749e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9.594860674772251</v>
+        <v>5.079739607650675e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.089815860666749e-06</v>
+        <v>-0.1052980836869053</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.079739607650675e-06</v>
+        <v>0.2575609426198988</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1052980836869053</v>
+        <v>0.07722399466491463</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2575609426198988</v>
+        <v>1.920107082204052</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07722399466491463</v>
+        <v>3.352160131096974</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.950453421263013</v>
+        <v>5.700187215973972</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.352160131096974</v>
+        <v>9.127648773664289e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.700187215973972</v>
+        <v>4256138552.609343</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.127648773664289e-17</v>
+        <v>2.80175523205361e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4256138552.609343</v>
+        <v>1653.447596144759</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.80175523205361e-08</v>
+        <v>6.980829988347681e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1653.447596144759</v>
+        <v>9.465491163969562</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.980829988347681e-05</v>
+        <v>1.275534688814892</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.465491163969562</v>
+        <v>0.006254511136068711</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.275534688814892</v>
+        <v>5.485832212592194</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006254511136068711</v>
+        <v>0.9614348013059495</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.485832212592194</v>
+        <v>0.9068993247316329</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9614348013059495</v>
+        <v>58</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9068993247316329</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.760823224401484</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>6.37671192462881e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.684298333849799</v>
+        <v>3.890103697752482e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.885832939238817</v>
+        <v>5.005493220908449e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.890103697752482e-06</v>
+        <v>-0.1017637462314412</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.005493220908449e-06</v>
+        <v>0.2312151883618466</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1017637462314412</v>
+        <v>0.06365757527060652</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2312151883618466</v>
+        <v>1.913361937855438</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06365757527060652</v>
+        <v>3.443715346917686</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.947020713896619</v>
+        <v>5.660748598811026</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.443715346917686</v>
+        <v>9.255277069396747e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.660748598811026</v>
+        <v>4152308599.758388</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.255277069396747e-17</v>
+        <v>2.872473606990564e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4152308599.758388</v>
+        <v>1595.764025172858</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.872473606990564e-08</v>
+        <v>8.269484979359319e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1595.764025172858</v>
+        <v>9.282408428539821</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.269484979359319e-05</v>
+        <v>1.226408901610992</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.282408428539821</v>
+        <v>0.007125245127788823</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.226408901610992</v>
+        <v>5.202401209104972</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007125245127788823</v>
+        <v>0.9624954928974969</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.202401209104972</v>
+        <v>0.9135437853084168</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9624954928974969</v>
+        <v>58</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9135437853084168</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>5.451548554243415</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>5.191979425594356e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.380680541783398</v>
+        <v>3.047691501637295e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6.32112057961757</v>
+        <v>4.948089655551469e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.047691501637295e-06</v>
+        <v>-0.09790654561778875</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.948089655551469e-06</v>
+        <v>0.2053435483002239</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09790654561778875</v>
+        <v>0.05163382004655821</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2053435483002239</v>
+        <v>1.913429561038898</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05163382004655821</v>
+        <v>3.333067227831333</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.94624060851999</v>
+        <v>5.664436854053504</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.333067227831333</v>
+        <v>9.243228312667559e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.664436854053504</v>
+        <v>4161162098.16886</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.243228312667559e-17</v>
+        <v>2.866221221994066e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4161162098.16886</v>
+        <v>1600.489939723771</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.866221221994066e-08</v>
+        <v>9.345897560540434e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1600.489939723771</v>
+        <v>9.729267599713227</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.345897560540434e-05</v>
+        <v>1.248042807444349</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.729267599713227</v>
+        <v>0.008846700276780022</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.248042807444349</v>
+        <v>5.14441135434898</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008846700276780022</v>
+        <v>0.9625240957860571</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.14441135434898</v>
+        <v>0.9214364641350337</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9625240957860571</v>
+        <v>58</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9214364641350337</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>5.604521837660208</v>
       </c>
     </row>
@@ -4235,7 +4199,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.337231614808576</v>
+        <v>1.345620754211581</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.447788547537079</v>
@@ -4324,7 +4288,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.371505228106393</v>
+        <v>1.388143411390501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.295767921759857</v>
@@ -4413,7 +4377,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.364108245070686</v>
+        <v>1.377677170348814</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.310217093378871</v>
@@ -4502,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.39219541559636</v>
+        <v>1.407852846151794</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.36555119231107</v>
@@ -4591,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.412589231410058</v>
+        <v>1.425468061364101</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.238320755331284</v>
@@ -4680,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.424473927658005</v>
+        <v>1.437458371839312</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.390150849824296</v>
@@ -4769,7 +4733,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.454065291771729</v>
+        <v>1.463802484294841</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.151155032320704</v>
@@ -4858,7 +4822,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.469244854738054</v>
+        <v>1.482863734585278</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.325116767982776</v>
@@ -4947,7 +4911,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.479152198590731</v>
+        <v>1.491895072187472</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.373564201869343</v>
@@ -5036,7 +5000,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.472447903990366</v>
+        <v>1.48617032810316</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.32201110130775</v>
@@ -5125,7 +5089,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.428990394532712</v>
+        <v>1.442143829360577</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.397818108863695</v>
@@ -5214,7 +5178,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.432450498977429</v>
+        <v>1.446201472309677</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.436087841662103</v>
@@ -5303,7 +5267,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.431483989260861</v>
+        <v>1.444840751013802</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.438464247014569</v>
@@ -5392,7 +5356,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.448756508468893</v>
+        <v>1.461283697156868</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.198031314682492</v>
@@ -5481,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.438726816885625</v>
+        <v>1.454593695639718</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.543487963494067</v>
@@ -5570,7 +5534,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.451682764594324</v>
+        <v>1.464969249377007</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.513278445084284</v>
@@ -5659,7 +5623,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.446608876613561</v>
+        <v>1.457316855805543</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.162278183544755</v>
@@ -5748,7 +5712,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.484966826371048</v>
+        <v>1.49605433174915</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.3543665485063</v>
@@ -5837,7 +5801,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.48764924158462</v>
+        <v>1.501091477881186</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.422568360434588</v>
@@ -5926,7 +5890,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.507712155731842</v>
+        <v>1.51603662204249</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.519524514655584</v>
@@ -6015,7 +5979,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.493770722146769</v>
+        <v>1.507488829833689</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.470725482671887</v>
@@ -6104,7 +6068,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.493646773082796</v>
+        <v>1.508781813647093</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.461542870468019</v>
@@ -6193,7 +6157,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.488962526764032</v>
+        <v>1.502303635018231</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.40413477053452</v>
@@ -6282,7 +6246,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.465561937758702</v>
+        <v>1.48040957111363</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.532539257374611</v>
@@ -6371,7 +6335,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.453305482086767</v>
+        <v>1.467310277070003</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.340082193252233</v>
@@ -6460,7 +6424,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.452120674217784</v>
+        <v>1.46044456408868</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.440817750146665</v>
@@ -6549,7 +6513,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.423379892571055</v>
+        <v>1.4347313462682</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.469600579353416</v>
@@ -6638,7 +6602,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.402620869728623</v>
+        <v>1.413551575441312</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.496449623016091</v>
@@ -6727,7 +6691,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.404535473497807</v>
+        <v>1.413091752870838</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.326182459483616</v>
@@ -6816,7 +6780,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.423764405106737</v>
+        <v>1.429876309668349</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.371075588626156</v>
@@ -6905,7 +6869,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.431343328329321</v>
+        <v>1.439333546858109</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.554183869289372</v>
@@ -6994,7 +6958,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.439028281729489</v>
+        <v>1.447472456996313</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.458808099127723</v>
@@ -7083,7 +7047,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.43893141866104</v>
+        <v>1.449385627175418</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.484913656168069</v>
@@ -7172,7 +7136,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.439017825260641</v>
+        <v>1.449629285352225</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.479668527463959</v>
@@ -7261,7 +7225,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.410995378597725</v>
+        <v>1.422150660501811</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.286247095343541</v>
@@ -7350,7 +7314,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433350914327291</v>
+        <v>1.446000021427165</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.549159460537021</v>
@@ -7439,7 +7403,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.434488818978503</v>
+        <v>1.448214886155277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.513996256100578</v>
@@ -7528,7 +7492,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.443857471755795</v>
+        <v>1.455388490198988</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.369996788481199</v>
@@ -7617,7 +7581,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.446436611256476</v>
+        <v>1.459333136141506</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.33138406592483</v>
@@ -7706,7 +7670,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.494159133539597</v>
+        <v>1.505601507213741</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.262786782744596</v>
@@ -7795,7 +7759,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556720779519345</v>
+        <v>1.57481713111415</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.392935953356221</v>
@@ -7884,7 +7848,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588218050630197</v>
+        <v>1.607025292911577</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.376956179972106</v>
@@ -7973,7 +7937,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62654167662708</v>
+        <v>1.636992780900242</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.400087555472229</v>
@@ -8062,7 +8026,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.589584595551569</v>
+        <v>1.606778303211411</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.487660380345414</v>
@@ -8151,7 +8115,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.590828089360165</v>
+        <v>1.609504498916896</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.577696187551358</v>
@@ -8240,7 +8204,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.57361272109843</v>
+        <v>1.592407159578791</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.626517027593399</v>
@@ -8329,7 +8293,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584988199156182</v>
+        <v>1.606396938944591</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.487632025048895</v>
@@ -8418,7 +8382,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.534797678096784</v>
+        <v>1.551715785765323</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.542296129381947</v>
@@ -8507,7 +8471,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.5319568813707</v>
+        <v>1.550684768810245</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.647166323499515</v>
@@ -8793,7 +8757,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.366915305648655</v>
+        <v>1.353116072922837</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.636439473906516</v>
@@ -8882,7 +8846,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.387528971329763</v>
+        <v>1.375553341688684</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.605141274234659</v>
@@ -8971,7 +8935,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.378789454939894</v>
+        <v>1.367519905867328</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.475155522699186</v>
@@ -9060,7 +9024,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.394599224323751</v>
+        <v>1.386398485663074</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.589581482824062</v>
@@ -9149,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.407635116736438</v>
+        <v>1.396602630588856</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.367878376342898</v>
@@ -9238,7 +9202,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.423823766268665</v>
+        <v>1.414699741983292</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.612660901804655</v>
@@ -9327,7 +9291,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.441199828536474</v>
+        <v>1.430036242280989</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.615012967218715</v>
@@ -9416,7 +9380,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.453558542735275</v>
+        <v>1.442107749299511</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.515346648555378</v>
@@ -9505,7 +9469,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.478227472024765</v>
+        <v>1.466603011255519</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.673212870109932</v>
@@ -9594,7 +9558,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.477706829265338</v>
+        <v>1.477123354830214</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.613258166452377</v>
@@ -9683,7 +9647,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.453922267397308</v>
+        <v>1.453832078373184</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.736230747567562</v>
@@ -9772,7 +9736,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.461090577560576</v>
+        <v>1.460265848317506</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.613502791321602</v>
@@ -9861,7 +9825,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.470040961195921</v>
+        <v>1.470238628123347</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.675806816362759</v>
@@ -9950,7 +9914,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.471439716055528</v>
+        <v>1.469220459465153</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.758979005265543</v>
@@ -10039,7 +10003,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465413636111008</v>
+        <v>1.467532891890982</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.721723551202569</v>
@@ -10128,7 +10092,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.46968990463715</v>
+        <v>1.470347560839887</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.599633131039748</v>
@@ -10217,7 +10181,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.46648814311352</v>
+        <v>1.469225565809208</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.376007782186516</v>
@@ -10306,7 +10270,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.498680824976235</v>
+        <v>1.499431746858578</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.531630571398935</v>
@@ -10395,7 +10359,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516706705413294</v>
+        <v>1.515829734531432</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.460936915536244</v>
@@ -10484,7 +10448,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.55079205188062</v>
+        <v>1.544797491435094</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.606798381214006</v>
@@ -10573,7 +10537,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.541263245233899</v>
+        <v>1.535777402428712</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.713305038471789</v>
@@ -10662,7 +10626,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532603822726326</v>
+        <v>1.535566763982944</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.748396607634235</v>
@@ -10751,7 +10715,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.516213563662595</v>
+        <v>1.519809141103476</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.809383399738748</v>
@@ -10840,7 +10804,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.490196822809995</v>
+        <v>1.48854029013583</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.818727534707149</v>
@@ -10929,7 +10893,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488462382069599</v>
+        <v>1.484061510272419</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.528857720930374</v>
@@ -11018,7 +10982,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.478936573196918</v>
+        <v>1.467559221178655</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.521667624755971</v>
@@ -11107,7 +11071,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.457682059860373</v>
+        <v>1.451607091648848</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.55085574947969</v>
@@ -11196,7 +11160,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.431805684111203</v>
+        <v>1.432279116666812</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.565739542920103</v>
@@ -11285,7 +11249,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.43104345142683</v>
+        <v>1.430480162752567</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.511798293169587</v>
@@ -11374,7 +11338,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.434441760207081</v>
+        <v>1.429265774175835</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.618096832655893</v>
@@ -11463,7 +11427,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.438512156385578</v>
+        <v>1.438490871386844</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.621246861186498</v>
@@ -11552,7 +11516,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.450670529500701</v>
+        <v>1.446247204206927</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.537647493009241</v>
@@ -11641,7 +11605,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.454006382551369</v>
+        <v>1.447703206691654</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.690177397707226</v>
@@ -11730,7 +11694,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.45510659708744</v>
+        <v>1.449443646437689</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.660713505456392</v>
@@ -11819,7 +11783,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.438720754184042</v>
+        <v>1.433788921059427</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.432977871519207</v>
@@ -11908,7 +11872,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.452992576469482</v>
+        <v>1.443927360471009</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.478824110187677</v>
@@ -11997,7 +11961,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.446986666603661</v>
+        <v>1.439915858081893</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.659437425182733</v>
@@ -12086,7 +12050,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.444887025103216</v>
+        <v>1.439798768213536</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.668093743714351</v>
@@ -12175,7 +12139,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.450478789302027</v>
+        <v>1.451394320954234</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.423274833858843</v>
@@ -12264,7 +12228,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456393891509477</v>
+        <v>1.456312860824539</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.51898269223541</v>
@@ -12353,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482821929996539</v>
+        <v>1.488822421521545</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.994868624270702</v>
@@ -12442,7 +12406,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.500047004296723</v>
+        <v>1.503902535979107</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.696667427751477</v>
@@ -12531,7 +12495,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.523381986228671</v>
+        <v>1.518013035724327</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.766612585843116</v>
@@ -12620,7 +12584,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.521399985146253</v>
+        <v>1.515828649276388</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.74258884540638</v>
@@ -12709,7 +12673,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529688596579259</v>
+        <v>1.521256898889662</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.605776183142198</v>
@@ -12798,7 +12762,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.523793378271286</v>
+        <v>1.515549406583813</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.972639427827019</v>
@@ -12887,7 +12851,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.513103757868125</v>
+        <v>1.514318167423761</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.943462760235141</v>
@@ -12976,7 +12940,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.47884797629418</v>
+        <v>1.483577838591934</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.804223011432498</v>
@@ -13065,7 +13029,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.478484258322752</v>
+        <v>1.484125028674934</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.877015325687519</v>
@@ -13351,7 +13315,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.779033256385691</v>
+        <v>1.775643927210975</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.980244874003966</v>
@@ -13440,7 +13404,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.782221644143155</v>
+        <v>1.781220041660107</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.452439116889476</v>
@@ -13529,7 +13493,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.775437734207844</v>
+        <v>1.774688296781468</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.388651731466696</v>
@@ -13618,7 +13582,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.789407420371937</v>
+        <v>1.791168799312232</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.807924317940931</v>
@@ -13707,7 +13671,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.794216746495544</v>
+        <v>1.793327175365085</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.888238944684534</v>
@@ -13796,7 +13760,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.802711817165659</v>
+        <v>1.797463450038618</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.586941808479787</v>
@@ -13885,7 +13849,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.805589044596515</v>
+        <v>1.796577311653311</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.366570922030829</v>
@@ -13974,7 +13938,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809413160082536</v>
+        <v>1.798387672240414</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.960858600150881</v>
@@ -14063,7 +14027,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.813926422689655</v>
+        <v>1.797010173886089</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.636963925353227</v>
@@ -14152,7 +14116,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.818939334777265</v>
+        <v>1.804248031967373</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.161961659595889</v>
@@ -14241,7 +14205,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.795725140673242</v>
+        <v>1.783674560445744</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.662956273978196</v>
@@ -14330,7 +14294,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.800135572431878</v>
+        <v>1.781285321034515</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.090229354189983</v>
@@ -14419,7 +14383,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.799257197095595</v>
+        <v>1.782492189765136</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.991325406502379</v>
@@ -14508,7 +14472,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.801100726766661</v>
+        <v>1.783590031703862</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.24766764126468</v>
@@ -14597,7 +14561,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.795325878339933</v>
+        <v>1.780050213514502</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.899825397707368</v>
@@ -14686,7 +14650,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.798247378456293</v>
+        <v>1.778780387483071</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.410943284515937</v>
@@ -14775,7 +14739,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.800039423782871</v>
+        <v>1.769954407933208</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.468456234045917</v>
@@ -14864,7 +14828,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.808242527187415</v>
+        <v>1.777606436410585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.735537884602041</v>
@@ -14953,7 +14917,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.804856583118949</v>
+        <v>1.777168606036168</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.368210054688646</v>
@@ -15042,7 +15006,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.817120817908957</v>
+        <v>1.787397278872185</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.896237984905419</v>
@@ -15131,7 +15095,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.809380951173986</v>
+        <v>1.780987690352008</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.826560756180306</v>
@@ -15220,7 +15184,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.805623543103194</v>
+        <v>1.775716266688237</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.196617939206335</v>
@@ -15309,7 +15273,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.805340757596246</v>
+        <v>1.768388198440344</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.693853599304338</v>
@@ -15398,7 +15362,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.783882533359471</v>
+        <v>1.74979514775077</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.611121296358643</v>
@@ -15487,7 +15451,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.78170642359326</v>
+        <v>1.747393443255352</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.052354847622818</v>
@@ -15576,7 +15540,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.78516859942004</v>
+        <v>1.748007343067091</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.944627104041511</v>
@@ -15665,7 +15629,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.780185142556509</v>
+        <v>1.748367814051287</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.739466916070135</v>
@@ -15754,7 +15718,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.772154828364689</v>
+        <v>1.736821391058053</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.593698850994858</v>
@@ -15843,7 +15807,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.769468564421896</v>
+        <v>1.728519876424897</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.684892422042837</v>
@@ -15932,7 +15896,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.764241136819989</v>
+        <v>1.72407173919682</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.012509614444666</v>
@@ -16021,7 +15985,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.7623425269561</v>
+        <v>1.72227916103058</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.858682694981019</v>
@@ -16110,7 +16074,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.769720889429863</v>
+        <v>1.736623014434005</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.453428340450779</v>
@@ -16199,7 +16163,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.779591512081249</v>
+        <v>1.743138524815404</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.480113679237504</v>
@@ -16288,7 +16252,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.781662171391135</v>
+        <v>1.74491909938512</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.038304620015793</v>
@@ -16377,7 +16341,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.77399319055316</v>
+        <v>1.736492229220063</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.062905595915145</v>
@@ -16466,7 +16430,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.788743037396883</v>
+        <v>1.748028050196512</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.587828677137861</v>
@@ -16555,7 +16519,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.788560610050092</v>
+        <v>1.75397827067069</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.835338776020747</v>
@@ -16644,7 +16608,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.792707370639962</v>
+        <v>1.762536891952856</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.741368389993096</v>
@@ -16733,7 +16697,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.800816777041867</v>
+        <v>1.775547083836858</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.950188713765686</v>
@@ -16822,7 +16786,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.815412990709877</v>
+        <v>1.785701562358781</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.760806166016695</v>
@@ -16911,7 +16875,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.834723368077685</v>
+        <v>1.803208700118463</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.738908253922617</v>
@@ -17000,7 +16964,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.839462668998078</v>
+        <v>1.811527009805351</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.572571129595399</v>
@@ -17089,7 +17053,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.837394987296684</v>
+        <v>1.81450980535698</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.167935990636262</v>
@@ -17178,7 +17142,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.83369031326241</v>
+        <v>1.819009225287394</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.366425690199612</v>
@@ -17267,7 +17231,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.841807055028022</v>
+        <v>1.825028651445652</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.658977556179408</v>
@@ -17356,7 +17320,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.838494158335404</v>
+        <v>1.823370424693149</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.814716498225791</v>
@@ -17445,7 +17409,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.837482929876887</v>
+        <v>1.822511741002434</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.653427257032879</v>
@@ -17534,7 +17498,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.809826226806686</v>
+        <v>1.805243508340969</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.263123475298931</v>
@@ -17623,7 +17587,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.800956128219562</v>
+        <v>1.790859383194956</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.852991485470932</v>
@@ -17909,7 +17873,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.737746790588413</v>
+        <v>1.71777574792566</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.552432814278961</v>
@@ -17998,7 +17962,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.74925806207216</v>
+        <v>1.726559928795517</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.759145627107573</v>
@@ -18087,7 +18051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.746764144970407</v>
+        <v>1.721443606967239</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.965672274610109</v>
@@ -18176,7 +18140,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.756913761494026</v>
+        <v>1.732949112235375</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.190364718728792</v>
@@ -18265,7 +18229,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.761994697625354</v>
+        <v>1.741311546196593</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.157188019572753</v>
@@ -18354,7 +18318,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.767166879495542</v>
+        <v>1.751642761756807</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.245461625321887</v>
@@ -18443,7 +18407,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.777110206041253</v>
+        <v>1.761388634695897</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.872033832820503</v>
@@ -18532,7 +18496,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.773752359615646</v>
+        <v>1.758919310059043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.427827230374821</v>
@@ -18621,7 +18585,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.778412850260772</v>
+        <v>1.766099406546161</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.29094751054836</v>
@@ -18710,7 +18674,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.778135825638527</v>
+        <v>1.76699332557453</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.488851960427191</v>
@@ -18799,7 +18763,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.767528328956096</v>
+        <v>1.754045656103949</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.593149271997079</v>
@@ -18888,7 +18852,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.76258098722761</v>
+        <v>1.746100605736139</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.959214734950962</v>
@@ -18977,7 +18941,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.763755699693216</v>
+        <v>1.74891209600738</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.886887398167653</v>
@@ -19066,7 +19030,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.760390927654071</v>
+        <v>1.750641569796839</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.1762974435796</v>
@@ -19155,7 +19119,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.764967516752822</v>
+        <v>1.754123653949693</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.20495442976193</v>
@@ -19244,7 +19208,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.763091606358326</v>
+        <v>1.75180530756409</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.892869848856668</v>
@@ -19333,7 +19297,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.766422585706546</v>
+        <v>1.754697252195017</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.524675383808516</v>
@@ -19422,7 +19386,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.77380858475174</v>
+        <v>1.768694255621279</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.020885636719589</v>
@@ -19511,7 +19475,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.778660487797506</v>
+        <v>1.770780995593031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.48213717051236</v>
@@ -19600,7 +19564,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.777048309988075</v>
+        <v>1.763744704429505</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.110125353728677</v>
@@ -19689,7 +19653,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.767219553573699</v>
+        <v>1.750738293325161</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.877774331945357</v>
@@ -19778,7 +19742,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.76689099310232</v>
+        <v>1.746628697439399</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.085614211591673</v>
@@ -19867,7 +19831,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.766403168752796</v>
+        <v>1.741076489130646</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.619601504550421</v>
@@ -19956,7 +19920,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76039295190601</v>
+        <v>1.728036286736909</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.864734472138004</v>
@@ -20045,7 +20009,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.746525714361481</v>
+        <v>1.711344002480902</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.606103061850879</v>
@@ -20134,7 +20098,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.744556081028754</v>
+        <v>1.705222089428864</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.985929409334179</v>
@@ -20223,7 +20187,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.742558949261374</v>
+        <v>1.701484419070846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.423457266283583</v>
@@ -20312,7 +20276,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.746405505165519</v>
+        <v>1.698376398000117</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.145698808997929</v>
@@ -20401,7 +20365,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.751880521510536</v>
+        <v>1.695786706904535</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.787461447098403</v>
@@ -20490,7 +20454,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.7443520563779</v>
+        <v>1.686104721148687</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.909083591793968</v>
@@ -20579,7 +20543,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.743545890506433</v>
+        <v>1.68265953278956</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.889965657750612</v>
@@ -20668,7 +20632,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.741122767053271</v>
+        <v>1.680699427225062</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.872206394972048</v>
@@ -20757,7 +20721,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.738027085141319</v>
+        <v>1.675530843597687</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.398856636164054</v>
@@ -20846,7 +20810,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.737282502698739</v>
+        <v>1.678025139061977</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.060532645674595</v>
@@ -20935,7 +20899,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.743762465634154</v>
+        <v>1.683991690837707</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.041348873412964</v>
@@ -21024,7 +20988,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.757590495780965</v>
+        <v>1.695091952313507</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.028716213818647</v>
@@ -21113,7 +21077,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.754636409461569</v>
+        <v>1.696915519235759</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.350229521412292</v>
@@ -21202,7 +21166,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.748101308747271</v>
+        <v>1.692915351292416</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.73822409368111</v>
@@ -21291,7 +21255,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.748150822244012</v>
+        <v>1.699551345025326</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.617340999700639</v>
@@ -21380,7 +21344,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.760391574279471</v>
+        <v>1.709848010591972</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.192446830886118</v>
@@ -21469,7 +21433,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.772251356553043</v>
+        <v>1.727912433084259</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.654917696702239</v>
@@ -21558,7 +21522,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.780347649967023</v>
+        <v>1.739676832618551</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.924515638948454</v>
@@ -21647,7 +21611,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.777111284685443</v>
+        <v>1.74138894016669</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.475701984430297</v>
@@ -21736,7 +21700,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.777292095093661</v>
+        <v>1.742358676802501</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.727791508874634</v>
@@ -21825,7 +21789,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.784501573355352</v>
+        <v>1.755236866068063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.356923988095557</v>
@@ -21914,7 +21878,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.779151585966214</v>
+        <v>1.749396404501531</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.453425377524559</v>
@@ -22003,7 +21967,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.784413425054219</v>
+        <v>1.75506811208376</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.28834243295081</v>
@@ -22092,7 +22056,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.77668146594108</v>
+        <v>1.744285653448769</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.292946121101807</v>
@@ -22181,7 +22145,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.775903827535436</v>
+        <v>1.739832056290465</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.169286286731097</v>
@@ -22467,7 +22431,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.515779178796477</v>
+        <v>1.507795785608013</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.83721640636008</v>
@@ -22556,7 +22520,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.513173427410926</v>
+        <v>1.505501136029708</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.843137149802669</v>
@@ -22645,7 +22609,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505266179727597</v>
+        <v>1.495236024657266</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.622945894050364</v>
@@ -22734,7 +22698,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5217793277637</v>
+        <v>1.509765258496149</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.518967564088575</v>
@@ -22823,7 +22787,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.514320996766403</v>
+        <v>1.499753782334546</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.890243243467617</v>
@@ -22912,7 +22876,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.511855750872877</v>
+        <v>1.498095411921767</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.095748186573922</v>
@@ -23001,7 +22965,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526884632718438</v>
+        <v>1.508136335819043</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.142871724222584</v>
@@ -23090,7 +23054,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.521476693388786</v>
+        <v>1.498834342503407</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.892456386286857</v>
@@ -23179,7 +23143,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.530058522651204</v>
+        <v>1.501280986714292</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.084698602427568</v>
@@ -23268,7 +23232,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.534037256808849</v>
+        <v>1.505272005333786</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.835048804264704</v>
@@ -23357,7 +23321,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.520867954833336</v>
+        <v>1.490118733933795</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.038927382309541</v>
@@ -23446,7 +23410,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.522624645201367</v>
+        <v>1.487297882380986</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.832727976320823</v>
@@ -23535,7 +23499,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537590669541124</v>
+        <v>1.501802149831674</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.026980051874366</v>
@@ -23624,7 +23588,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535542892033269</v>
+        <v>1.500773846403455</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.89907111308338</v>
@@ -23713,7 +23677,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534864220981145</v>
+        <v>1.500673217506906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.960903489992823</v>
@@ -23802,7 +23766,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.533943270426777</v>
+        <v>1.495695265676982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.847976487194397</v>
@@ -23891,7 +23855,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.532702680891203</v>
+        <v>1.495538145769234</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.765976051805987</v>
@@ -23980,7 +23944,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546322794950252</v>
+        <v>1.507591782043388</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.784145950483826</v>
@@ -24069,7 +24033,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.546563057319238</v>
+        <v>1.505321432649793</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.946793326259489</v>
@@ -24158,7 +24122,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58311121702408</v>
+        <v>1.535716559373181</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.833047889921116</v>
@@ -24247,7 +24211,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.598752902347276</v>
+        <v>1.552877512192864</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.176441254954711</v>
@@ -24336,7 +24300,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.597597494962934</v>
+        <v>1.558223367080247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.932247644231938</v>
@@ -24425,7 +24389,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592689683026373</v>
+        <v>1.558592237818633</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.016428643372842</v>
@@ -24514,7 +24478,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.573176117812647</v>
+        <v>1.547533418008657</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.865264136467438</v>
@@ -24603,7 +24567,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577653653739619</v>
+        <v>1.547066136616948</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.52756927412396</v>
@@ -24692,7 +24656,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.58270581466969</v>
+        <v>1.555548961989845</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.782847155359228</v>
@@ -24781,7 +24745,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590422501337591</v>
+        <v>1.567986842532351</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.120218572680112</v>
@@ -24870,7 +24834,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592444334369784</v>
+        <v>1.570424774756947</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.043705026412047</v>
@@ -24959,7 +24923,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.603226899423051</v>
+        <v>1.578325914774742</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.170401110162592</v>
@@ -25048,7 +25012,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.593879024963058</v>
+        <v>1.569553024634366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.902403499234654</v>
@@ -25137,7 +25101,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595141121347003</v>
+        <v>1.574163433251887</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.00606031978886</v>
@@ -25226,7 +25190,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602350117756458</v>
+        <v>1.578252464026735</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.065816201963119</v>
@@ -25315,7 +25279,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.604796307341839</v>
+        <v>1.576773154220983</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.961738806227899</v>
@@ -25404,7 +25368,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603202891018818</v>
+        <v>1.578845154552362</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.184642497361843</v>
@@ -25493,7 +25457,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.595975438597871</v>
+        <v>1.567017603788061</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.01971059048429</v>
@@ -25582,7 +25546,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595719648974138</v>
+        <v>1.564106366789435</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.587401501418523</v>
@@ -25671,7 +25635,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.583537951218213</v>
+        <v>1.557323132508195</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.982433620269776</v>
@@ -25760,7 +25724,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.583881819817444</v>
+        <v>1.551377758122179</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.72726543316911</v>
@@ -25849,7 +25813,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.598884920504854</v>
+        <v>1.561801554919589</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.235125927139347</v>
@@ -25938,7 +25902,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.592653172177832</v>
+        <v>1.558406863564319</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.269022292836372</v>
@@ -26027,7 +25991,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.586010166617016</v>
+        <v>1.551691712149065</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.118329850061125</v>
@@ -26116,7 +26080,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573454756784989</v>
+        <v>1.538892648906042</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.399680845376024</v>
@@ -26205,7 +26169,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563472852225037</v>
+        <v>1.531080313182867</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.126223541168026</v>
@@ -26294,7 +26258,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562193099155699</v>
+        <v>1.530110744343882</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.036386453127974</v>
@@ -26383,7 +26347,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567854125609687</v>
+        <v>1.531302485025408</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.837074664507587</v>
@@ -26472,7 +26436,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.561220177560739</v>
+        <v>1.527863474227773</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.270898631598454</v>
@@ -26561,7 +26525,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.54291585055323</v>
+        <v>1.513900371768779</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.223198315099105</v>
@@ -26650,7 +26614,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.535334335908309</v>
+        <v>1.511797695749322</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.102075999515149</v>
@@ -26739,7 +26703,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.528141308242619</v>
+        <v>1.505555461126548</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.850954743091517</v>
@@ -27025,7 +26989,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.373140347436304</v>
+        <v>1.394648462690787</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.444637176876689</v>
@@ -27114,7 +27078,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.408744065138219</v>
+        <v>1.438717662419648</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.183172732158674</v>
@@ -27203,7 +27167,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.406821925043659</v>
+        <v>1.433551041673285</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.338946606827578</v>
@@ -27292,7 +27256,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.437705855062195</v>
+        <v>1.467540796848541</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.367624110094037</v>
@@ -27381,7 +27345,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.453503861116628</v>
+        <v>1.480808293119073</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.504035565411552</v>
@@ -27470,7 +27434,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.456774498557975</v>
+        <v>1.485168891789284</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.34000984912147</v>
@@ -27559,7 +27523,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494537149669707</v>
+        <v>1.517477315824092</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.199988673242785</v>
@@ -27648,7 +27612,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.511854114332453</v>
+        <v>1.541627293355734</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.386992076179508</v>
@@ -27737,7 +27701,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.522405974688931</v>
+        <v>1.552377195678052</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.415523751146351</v>
@@ -27826,7 +27790,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524028113493941</v>
+        <v>1.552974458354761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.402774737013934</v>
@@ -27915,7 +27879,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.476030012087685</v>
+        <v>1.505058809645373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.518482331305741</v>
@@ -28004,7 +27968,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.472037739807616</v>
+        <v>1.49754482827397</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.560125262912008</v>
@@ -28093,7 +28057,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.471233582193469</v>
+        <v>1.496676296919051</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.454089682214365</v>
@@ -28182,7 +28146,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.493872869749368</v>
+        <v>1.516507377674664</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.253702506166704</v>
@@ -28271,7 +28235,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.490821003139708</v>
+        <v>1.51522108714472</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.581507790406384</v>
@@ -28360,7 +28324,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.508972264521872</v>
+        <v>1.53273140119746</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.636708075329023</v>
@@ -28449,7 +28413,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.499605958888936</v>
+        <v>1.523151837297175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.283606212260342</v>
@@ -28538,7 +28502,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.531384324353324</v>
+        <v>1.558884300318816</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.666738100153152</v>
@@ -28627,7 +28591,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.530233524588001</v>
+        <v>1.557934216439841</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.659273651823116</v>
@@ -28716,7 +28680,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542574428227548</v>
+        <v>1.5635631549361</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.594775020646725</v>
@@ -28805,7 +28769,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.532527079294051</v>
+        <v>1.559094188163768</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.469437250944762</v>
@@ -28894,7 +28858,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.536910204118033</v>
+        <v>1.562894208551897</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.509113626901929</v>
@@ -28983,7 +28947,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.528969663315126</v>
+        <v>1.548995659694841</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.52001064119598</v>
@@ -29072,7 +29036,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.503934632914818</v>
+        <v>1.527868415215165</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.572621907492428</v>
@@ -29161,7 +29125,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.487292750748003</v>
+        <v>1.505937961748477</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.517378007841928</v>
@@ -29250,7 +29214,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.482861808222413</v>
+        <v>1.496637840133211</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.484235835203041</v>
@@ -29339,7 +29303,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.45575799070641</v>
+        <v>1.473865105137175</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.399235275785763</v>
@@ -29428,7 +29392,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.433262493010787</v>
+        <v>1.449919278160501</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.551013670400022</v>
@@ -29517,7 +29481,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.430662003476717</v>
+        <v>1.445768728173256</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.372968717760453</v>
@@ -29606,7 +29570,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.444157493840774</v>
+        <v>1.457938474228482</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.26738142597862</v>
@@ -29695,7 +29659,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.461476964072599</v>
+        <v>1.480721044728261</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.509873745888862</v>
@@ -29784,7 +29748,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470319193527506</v>
+        <v>1.491156070402853</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.47763981388989</v>
@@ -29873,7 +29837,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472040369758741</v>
+        <v>1.495499760354763</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.514760040733174</v>
@@ -29962,7 +29926,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.475639864154833</v>
+        <v>1.500778292823393</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.438737993730596</v>
@@ -30051,7 +30015,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.45255799115296</v>
+        <v>1.475963488130412</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.350059280488423</v>
@@ -30140,7 +30104,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469040297255564</v>
+        <v>1.491227987960449</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.488095249127286</v>
@@ -30229,7 +30193,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.466729910380222</v>
+        <v>1.491488269040784</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.52922034611748</v>
@@ -30318,7 +30282,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.468768125275097</v>
+        <v>1.493671886235774</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.390992780306763</v>
@@ -30407,7 +30371,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.475545036909045</v>
+        <v>1.501210644912707</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.371946330865443</v>
@@ -30496,7 +30460,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516893907420208</v>
+        <v>1.542099843541228</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.326867884163337</v>
@@ -30585,7 +30549,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.574637329144649</v>
+        <v>1.608184234811634</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.490798284321554</v>
@@ -30674,7 +30638,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60419749413866</v>
+        <v>1.638033446383007</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.449210914774138</v>
@@ -30763,7 +30727,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.638448753498338</v>
+        <v>1.666760419550152</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.474793091066042</v>
@@ -30852,7 +30816,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.607132815611334</v>
+        <v>1.639580887350012</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.63048702878118</v>
@@ -30941,7 +30905,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607917701451621</v>
+        <v>1.638180839077417</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.612619066494206</v>
@@ -31030,7 +30994,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.592196155497113</v>
+        <v>1.617290815076774</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.585617372462037</v>
@@ -31119,7 +31083,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612899911220203</v>
+        <v>1.633346461803414</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.54873215982982</v>
@@ -31208,7 +31172,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566482285494311</v>
+        <v>1.582748970069453</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.70765818850459</v>
@@ -31297,7 +31261,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.55986620397288</v>
+        <v>1.575670828731925</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.724351163531343</v>
